--- a/src/assets/excel/report-kc-dc2.xlsx
+++ b/src/assets/excel/report-kc-dc2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Develop\RGAS\RGAS\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE689AA7-E101-478C-BFB7-77C3E52D24E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F0DF8-6471-4D80-9F30-6672DFE32F0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{69867729-0129-4C63-8D38-32902DC82BC3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>① Receiving Information</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>CUSTOMER COMPLAINT For month</t>
+  </si>
+  <si>
+    <t>Serial Lot No</t>
   </si>
 </sst>
 </file>
@@ -757,27 +760,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1097,19 +1100,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E00AFD-B6CB-474C-AC3F-1899BABCDE47}">
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX14" sqref="AX14"/>
+      <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X5" sqref="X5:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="51" width="18.140625" customWidth="1"/>
+    <col min="1" max="52" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1136,7 +1139,7 @@
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="7"/>
+      <c r="AA1" s="10"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
@@ -1145,7 +1148,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
-      <c r="AJ1" s="10"/>
+      <c r="AJ1" s="7"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10"/>
       <c r="AM1" s="10"/>
@@ -1156,9 +1159,10 @@
       <c r="AR1" s="10"/>
       <c r="AS1" s="10"/>
       <c r="AT1" s="10"/>
-      <c r="AU1" s="11"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="11"/>
     </row>
-    <row r="2" spans="1:51" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1180,10 +1184,10 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="19"/>
+      <c r="Y2" s="14"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
-      <c r="AB2" s="18"/>
+      <c r="AB2" s="19"/>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
       <c r="AE2" s="18"/>
@@ -1192,7 +1196,7 @@
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
-      <c r="AK2" s="19"/>
+      <c r="AK2" s="18"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
       <c r="AN2" s="19"/>
@@ -1203,8 +1207,9 @@
       <c r="AS2" s="19"/>
       <c r="AT2" s="19"/>
       <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
     </row>
-    <row r="3" spans="1:51" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -1233,39 +1238,40 @@
       <c r="V3" s="23"/>
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
-      <c r="Y3" s="23"/>
+      <c r="Y3" s="28"/>
       <c r="Z3" s="23"/>
-      <c r="AA3" s="24"/>
+      <c r="AA3" s="23"/>
       <c r="AB3" s="24"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="30" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="28"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="25"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28"/>
-      <c r="AO3" s="30" t="s">
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="26"/>
       <c r="AT3" s="32"/>
       <c r="AU3" s="32"/>
       <c r="AV3" s="32"/>
       <c r="AW3" s="32"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3"/>
     </row>
-    <row r="4" spans="1:51" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -1290,14 +1296,14 @@
       <c r="V4" s="25"/>
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
-      <c r="Y4" s="24"/>
+      <c r="Y4" s="28"/>
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
       <c r="AB4" s="24"/>
-      <c r="AC4" s="32"/>
+      <c r="AC4" s="24"/>
       <c r="AD4" s="32"/>
       <c r="AE4" s="32"/>
-      <c r="AF4" s="28"/>
+      <c r="AF4" s="32"/>
       <c r="AG4" s="28"/>
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
@@ -1306,7 +1312,7 @@
       <c r="AL4" s="28"/>
       <c r="AM4" s="28"/>
       <c r="AN4" s="28"/>
-      <c r="AO4" s="32"/>
+      <c r="AO4" s="28"/>
       <c r="AP4" s="32"/>
       <c r="AQ4" s="32"/>
       <c r="AR4" s="32"/>
@@ -1315,15 +1321,16 @@
       <c r="AU4" s="32"/>
       <c r="AV4" s="32"/>
       <c r="AW4" s="32"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4"/>
     </row>
-    <row r="5" spans="1:51" s="46" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:52" s="46" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="59" t="s">
@@ -1350,7 +1357,7 @@
       <c r="K5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="65" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="59" t="s">
@@ -1387,96 +1394,99 @@
         <v>45</v>
       </c>
       <c r="X5" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Z5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="59" t="s">
+      <c r="AA5" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AA5" s="59" t="s">
+      <c r="AB5" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="59" t="s">
+      <c r="AC5" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="59" t="s">
+      <c r="AD5" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="61" t="s">
+      <c r="AE5" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" s="42" t="s">
+      <c r="AF5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AF5" s="43" t="s">
+      <c r="AG5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="42" t="s">
+      <c r="AH5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AH5" s="42" t="s">
+      <c r="AI5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AJ5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AJ5" s="42" t="s">
+      <c r="AK5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="42" t="s">
+      <c r="AL5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AL5" s="44" t="s">
+      <c r="AM5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="44" t="s">
+      <c r="AN5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="44" t="s">
+      <c r="AO5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AO5" s="45" t="s">
+      <c r="AP5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AP5" s="45" t="s">
+      <c r="AQ5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="45" t="s">
+      <c r="AR5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AR5" s="45" t="s">
+      <c r="AS5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="45" t="s">
+      <c r="AT5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" s="45" t="s">
+      <c r="AU5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AU5" s="45" t="s">
+      <c r="AV5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AV5" s="45" t="s">
+      <c r="AW5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="AW5" s="45" t="s">
+      <c r="AX5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AX5" s="45" t="s">
+      <c r="AY5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AY5"/>
+      <c r="AZ5"/>
     </row>
-    <row r="6" spans="1:51" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
@@ -1485,7 +1495,7 @@
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
       <c r="K6" s="60"/>
-      <c r="L6" s="62"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
       <c r="O6" s="60"/>
@@ -1503,18 +1513,18 @@
       <c r="AA6" s="60"/>
       <c r="AB6" s="60"/>
       <c r="AC6" s="60"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="48"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="49"/>
       <c r="AH6" s="48"/>
       <c r="AI6" s="48"/>
       <c r="AJ6" s="48"/>
       <c r="AK6" s="48"/>
-      <c r="AL6" s="50"/>
+      <c r="AL6" s="48"/>
       <c r="AM6" s="50"/>
       <c r="AN6" s="50"/>
-      <c r="AO6" s="51"/>
+      <c r="AO6" s="50"/>
       <c r="AP6" s="51"/>
       <c r="AQ6" s="51"/>
       <c r="AR6" s="51"/>
@@ -1524,8 +1534,9 @@
       <c r="AV6" s="51"/>
       <c r="AW6" s="51"/>
       <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
     </row>
-    <row r="7" spans="1:51" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>55</v>
       </c>
@@ -1598,88 +1609,109 @@
       <c r="X7" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="55" t="s">
+      <c r="Y7" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="58" t="s">
+      <c r="AA7" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="52" t="s">
+      <c r="AB7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="53" t="s">
+      <c r="AC7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" s="56" t="s">
+      <c r="AD7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="56" t="s">
+      <c r="AE7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE7" s="56" t="s">
+      <c r="AF7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AF7" s="56" t="s">
+      <c r="AG7" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="AG7" s="56" t="s">
+      <c r="AH7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AH7" s="56" t="s">
+      <c r="AI7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI7" s="56" t="s">
+      <c r="AJ7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="56" t="s">
+      <c r="AK7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AK7" s="56" t="s">
+      <c r="AL7" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AL7" s="56" t="s">
+      <c r="AM7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AM7" s="56" t="s">
+      <c r="AN7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AN7" s="56" t="s">
+      <c r="AO7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AO7" s="56" t="s">
+      <c r="AP7" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AP7" s="56" t="s">
+      <c r="AQ7" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AQ7" s="56" t="s">
+      <c r="AR7" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AR7" s="56" t="s">
+      <c r="AS7" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AS7" s="56" t="s">
+      <c r="AT7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AT7" s="56" t="s">
+      <c r="AU7" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AU7" s="56" t="s">
+      <c r="AV7" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="AV7" s="56" t="s">
+      <c r="AW7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AW7" s="56" t="s">
+      <c r="AX7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AX7" s="58" t="s">
+      <c r="AY7" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AY7"/>
+      <c r="AZ7"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="X5:X6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:C6"/>
@@ -1692,23 +1724,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
